--- a/A2/output/masterGenHistory.xlsx
+++ b/A2/output/masterGenHistory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\GitHub\CS4341\A2\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tag\Documents\GitHub\CS4341\A2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Trial 1</t>
+  </si>
+  <si>
+    <t>Trial 2</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
+  </si>
+  <si>
+    <t>Trial 4</t>
+  </si>
+  <si>
+    <t>Trial 5</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,12 +73,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +192,1489 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="200024728"/>
+        <c:axId val="200021200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="200024728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200021200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200021200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200024728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +1940,3710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="3"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <f>AVERAGE(A2,E2,I2,M2)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <f>AVERAGE(B2,F2,J2,N2)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="7">
+        <f>AVERAGE(C2,G2,K2,O2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" ref="V3:V64" si="0">AVERAGE(A3,E3,I3,M3)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <f t="shared" ref="W3:W64" si="1">AVERAGE(B3,F3,J3,N3)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <f t="shared" ref="X3:X64" si="2">AVERAGE(C3,G3,K3,O3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="W9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="W19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>28</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="W20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>29</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="W22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" si="0"/>
+        <v>10.75</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="V29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="V30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="V31" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="W31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>29</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="V33" s="5">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="W33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="W35" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="V36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="V37" s="5">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="W37" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>28</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="W39" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="W41" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="W42" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>28</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="W43" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W44" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W47" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="V48" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W48" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>15</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="V49" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W49" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="V50" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>39</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="V51" s="5">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="W51" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>28</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="V52" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="W52" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="V53" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>21</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="V54" s="5">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="W54" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="V55" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>29</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="V56" s="5">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="W56" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="V57" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>29</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="V58" s="5">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="W58" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="V59" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X59" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="V60" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>38</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="V61" s="5">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="W61" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="V62" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="V63" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="W63" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="V64" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/A2/output/masterGenHistory.xlsx
+++ b/A2/output/masterGenHistory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tag\Documents\GitHub\CS4341\A2\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\GitHub\CS4341\A2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,9 +159,12 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -171,12 +174,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,7 +288,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -303,7 +303,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -318,22 +318,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -354,46 +354,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -402,40 +402,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0</c:v>
@@ -444,13 +444,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>14.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
@@ -899,11 +899,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="200024728"/>
-        <c:axId val="200021200"/>
+        <c:axId val="441381736"/>
+        <c:axId val="441378992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200024728"/>
+        <c:axId val="441381736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200021200"/>
+        <c:crossAx val="441378992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200021200"/>
+        <c:axId val="441378992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +1005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200024728"/>
+        <c:crossAx val="441381736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1940,45 +1940,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="V1" s="2" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="V1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="4"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="9"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -2026,15 +2026,15 @@
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="1">
         <f>AVERAGE(A2,E2,I2,M2)</f>
         <v>0</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="2">
         <f>AVERAGE(B2,F2,J2,N2)</f>
         <v>0</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="3">
         <f>AVERAGE(C2,G2,K2,O2)</f>
         <v>0</v>
       </c>
@@ -2085,15 +2085,15 @@
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="1">
         <f t="shared" ref="V3:V64" si="0">AVERAGE(A3,E3,I3,M3)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="2">
         <f t="shared" ref="W3:W64" si="1">AVERAGE(B3,F3,J3,N3)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="3">
         <f t="shared" ref="X3:X64" si="2">AVERAGE(C3,G3,K3,O3)</f>
         <v>0</v>
       </c>
@@ -2144,15 +2144,15 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="V4" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2203,15 +2203,15 @@
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="V5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
+      <c r="V5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2262,15 +2262,15 @@
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="V6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
+      <c r="V6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2321,15 +2321,15 @@
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="V7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
+      <c r="V7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2380,22 +2380,22 @@
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="V8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
+      <c r="V8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2439,15 +2439,15 @@
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="V9" s="5">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
-      </c>
-      <c r="W9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="7">
+      <c r="V9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2498,15 +2498,15 @@
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="V10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
+      <c r="V10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2557,15 +2557,15 @@
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="V11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="7">
+      <c r="V11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2616,15 +2616,15 @@
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="V12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="7">
+      <c r="V12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2675,15 +2675,15 @@
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="V13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="7">
+      <c r="V13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2734,15 +2734,15 @@
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="V14" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="7">
+      <c r="V14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2793,15 +2793,15 @@
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="V15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="7">
+      <c r="V15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2852,15 +2852,15 @@
       <c r="S16">
         <v>0</v>
       </c>
-      <c r="V16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="7">
+      <c r="V16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2911,15 +2911,15 @@
       <c r="S17">
         <v>0</v>
       </c>
-      <c r="V17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="7">
+      <c r="V17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2970,15 +2970,15 @@
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="V18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="7">
+      <c r="V18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3029,15 +3029,15 @@
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="V19" s="5">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="W19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
+      <c r="V19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -3088,15 +3088,15 @@
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="V20" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="W20" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="7">
+      <c r="V20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3147,22 +3147,22 @@
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="V21" s="5">
-        <f t="shared" si="0"/>
-        <v>7.25</v>
-      </c>
-      <c r="W21" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="7">
+      <c r="V21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3206,15 +3206,15 @@
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="V22" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="W22" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="7">
+      <c r="V22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3265,22 +3265,22 @@
       <c r="S23">
         <v>0</v>
       </c>
-      <c r="V23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="7">
+      <c r="V23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3324,15 +3324,15 @@
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="V24" s="5">
-        <f t="shared" si="0"/>
-        <v>10.75</v>
-      </c>
-      <c r="W24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="7">
+      <c r="V24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3383,15 +3383,15 @@
       <c r="S25">
         <v>0</v>
       </c>
-      <c r="V25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="7">
+      <c r="V25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3442,15 +3442,15 @@
       <c r="S26">
         <v>0</v>
       </c>
-      <c r="V26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="7">
+      <c r="V26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3501,15 +3501,15 @@
       <c r="S27">
         <v>0</v>
       </c>
-      <c r="V27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="7">
+      <c r="V27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3560,15 +3560,15 @@
       <c r="S28">
         <v>0</v>
       </c>
-      <c r="V28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="7">
+      <c r="V28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3619,15 +3619,15 @@
       <c r="S29">
         <v>0</v>
       </c>
-      <c r="V29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="7">
+      <c r="V29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3678,15 +3678,15 @@
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="V30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="7">
+      <c r="V30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3737,15 +3737,15 @@
       <c r="S31">
         <v>0</v>
       </c>
-      <c r="V31" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="W31" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="7">
+      <c r="V31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3796,15 +3796,15 @@
       <c r="S32">
         <v>0</v>
       </c>
-      <c r="V32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="7">
+      <c r="V32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3855,15 +3855,15 @@
       <c r="S33">
         <v>0</v>
       </c>
-      <c r="V33" s="5">
-        <f t="shared" si="0"/>
-        <v>7.25</v>
-      </c>
-      <c r="W33" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="7">
+      <c r="V33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3914,15 +3914,15 @@
       <c r="S34">
         <v>0</v>
       </c>
-      <c r="V34" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="7">
+      <c r="V34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3973,15 +3973,15 @@
       <c r="S35">
         <v>0</v>
       </c>
-      <c r="V35" s="5">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-      <c r="W35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="7">
+      <c r="V35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4032,22 +4032,22 @@
       <c r="S36">
         <v>0</v>
       </c>
-      <c r="V36" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="7">
+      <c r="V36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4091,15 +4091,15 @@
       <c r="S37">
         <v>0</v>
       </c>
-      <c r="V37" s="5">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-      <c r="W37" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="7">
+      <c r="V37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4150,15 +4150,15 @@
       <c r="S38">
         <v>0</v>
       </c>
-      <c r="V38" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="7">
+      <c r="V38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -4209,15 +4209,15 @@
       <c r="S39">
         <v>0</v>
       </c>
-      <c r="V39" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="W39" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="7">
+      <c r="V39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4268,22 +4268,22 @@
       <c r="S40">
         <v>0</v>
       </c>
-      <c r="V40" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="7">
+      <c r="V40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4327,22 +4327,22 @@
       <c r="S41">
         <v>0</v>
       </c>
-      <c r="V41" s="5">
-        <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="W41" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="7">
+      <c r="V41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4386,22 +4386,22 @@
       <c r="S42">
         <v>0</v>
       </c>
-      <c r="V42" s="5">
-        <f t="shared" si="0"/>
-        <v>7.25</v>
-      </c>
-      <c r="W42" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="7">
+      <c r="V42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4445,15 +4445,15 @@
       <c r="S43">
         <v>0</v>
       </c>
-      <c r="V43" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="W43" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="7">
+      <c r="V43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -4504,15 +4504,15 @@
       <c r="S44">
         <v>0</v>
       </c>
-      <c r="V44" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W44" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="7">
+      <c r="V44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4563,15 +4563,15 @@
       <c r="S45">
         <v>0</v>
       </c>
-      <c r="V45" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="7">
+      <c r="V45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4622,15 +4622,15 @@
       <c r="S46">
         <v>0</v>
       </c>
-      <c r="V46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="7">
+      <c r="V46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4681,15 +4681,15 @@
       <c r="S47">
         <v>0</v>
       </c>
-      <c r="V47" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W47" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="7">
+      <c r="V47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4740,15 +4740,15 @@
       <c r="S48">
         <v>0</v>
       </c>
-      <c r="V48" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W48" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="7">
+      <c r="V48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -4799,15 +4799,15 @@
       <c r="S49">
         <v>0</v>
       </c>
-      <c r="V49" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W49" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="7">
+      <c r="V49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4858,22 +4858,22 @@
       <c r="S50">
         <v>0</v>
       </c>
-      <c r="V50" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W50" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X50" s="7">
+      <c r="V50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4917,15 +4917,15 @@
       <c r="S51">
         <v>0</v>
       </c>
-      <c r="V51" s="5">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
-      </c>
-      <c r="W51" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X51" s="7">
+      <c r="V51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -4976,15 +4976,15 @@
       <c r="S52">
         <v>0</v>
       </c>
-      <c r="V52" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="W52" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X52" s="7">
+      <c r="V52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5035,15 +5035,15 @@
       <c r="S53">
         <v>0</v>
       </c>
-      <c r="V53" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X53" s="7">
+      <c r="V53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5094,15 +5094,15 @@
       <c r="S54">
         <v>0</v>
       </c>
-      <c r="V54" s="5">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-      <c r="W54" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X54" s="7">
+      <c r="V54" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5153,15 +5153,15 @@
       <c r="S55">
         <v>0</v>
       </c>
-      <c r="V55" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X55" s="7">
+      <c r="V55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -5212,15 +5212,15 @@
       <c r="S56">
         <v>0</v>
       </c>
-      <c r="V56" s="5">
-        <f t="shared" si="0"/>
-        <v>7.25</v>
-      </c>
-      <c r="W56" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X56" s="7">
+      <c r="V56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5271,15 +5271,15 @@
       <c r="S57">
         <v>0</v>
       </c>
-      <c r="V57" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W57" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X57" s="7">
+      <c r="V57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -5330,15 +5330,15 @@
       <c r="S58">
         <v>0</v>
       </c>
-      <c r="V58" s="5">
-        <f t="shared" si="0"/>
-        <v>7.25</v>
-      </c>
-      <c r="W58" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X58" s="7">
+      <c r="V58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5389,15 +5389,15 @@
       <c r="S59">
         <v>0</v>
       </c>
-      <c r="V59" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W59" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X59" s="7">
+      <c r="V59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5448,22 +5448,22 @@
       <c r="S60">
         <v>0</v>
       </c>
-      <c r="V60" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W60" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X60" s="7">
+      <c r="V60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -5507,15 +5507,15 @@
       <c r="S61">
         <v>0</v>
       </c>
-      <c r="V61" s="5">
-        <f t="shared" si="0"/>
-        <v>14.5</v>
-      </c>
-      <c r="W61" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X61" s="7">
+      <c r="V61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5566,22 +5566,22 @@
       <c r="S62">
         <v>0</v>
       </c>
-      <c r="V62" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W62" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X62" s="7">
+      <c r="V62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -5589,6 +5589,33 @@
       <c r="C63">
         <v>0</v>
       </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
       <c r="Q63">
         <v>0</v>
       </c>
@@ -5598,15 +5625,15 @@
       <c r="S63">
         <v>0</v>
       </c>
-      <c r="V63" s="5">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="W63" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X63" s="7">
+      <c r="V63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5621,17 +5648,339 @@
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="V64" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X64" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="V64" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J65">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K65">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J66">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K66">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J67">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K67">
+        <v>6830.6345700000002</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J68">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K68">
+        <v>7508.3215090000003</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J69">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K69">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J70">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K70">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J71">
+        <v>-37962582.475577503</v>
+      </c>
+      <c r="K71">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J72">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K72">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J73">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K73">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J74">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K74">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="75" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J75">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K75">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="76" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J76">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K76">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="77" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J77">
+        <v>-8433986.4392218906</v>
+      </c>
+      <c r="K77">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="78" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J78">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K78">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="79" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J79">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K79">
+        <v>20204.688399999901</v>
+      </c>
+    </row>
+    <row r="80" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J80">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K80">
+        <v>27472.406679999898</v>
+      </c>
+    </row>
+    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J81">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K81">
+        <v>27472.406679999898</v>
+      </c>
+    </row>
+    <row r="82" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J82">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K82">
+        <v>27472.406679999898</v>
+      </c>
+    </row>
+    <row r="83" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J83">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K83">
+        <v>27472.406679999898</v>
+      </c>
+    </row>
+    <row r="84" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J84">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K84">
+        <v>27472.406679999898</v>
+      </c>
+    </row>
+    <row r="85" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J85">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K85">
+        <v>27472.406679999898</v>
+      </c>
+    </row>
+    <row r="86" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J86">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K86">
+        <v>27472.406679999898</v>
+      </c>
+    </row>
+    <row r="87" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J87">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K87">
+        <v>27472.406679999898</v>
+      </c>
+    </row>
+    <row r="88" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J88">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K88">
+        <v>27472.406679999898</v>
+      </c>
+    </row>
+    <row r="89" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J89">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K89">
+        <v>27472.406679999898</v>
+      </c>
+    </row>
+    <row r="90" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>33342504.4761132</v>
+      </c>
+      <c r="J90">
+        <v>-19138663.946695801</v>
+      </c>
+      <c r="K90">
+        <v>20204.688399999901</v>
       </c>
     </row>
   </sheetData>
